--- a/Original/CN/Dialog/Drama/guild_clerk.xlsx
+++ b/Original/CN/Dialog/Drama/guild_clerk.xlsx
@@ -235,7 +235,7 @@
     <t xml:space="preserve">商人公会会为商人们提供支持，是保证商人们安全、公正交易的组织{。}。玛丽安女士虽然有点可怕{。}，但她也是仅凭一代就在提里斯发财的厉害女商人{。}。</t>
   </si>
   <si>
-    <t xml:space="preserve">对#guild的贡献度足够的状态下和我对话，就能增加公会中的排名{。}。排名上升后，就可以使用高级服务，还会有各种奖励，请加油提升排名吧{。}。</t>
+    <t xml:space="preserve">对#guild的贡献度足够的状态下和我对话，就能增加公会中的排名{。}。排名提升后，就可以使用高级服务，还会有各种奖励，请加油提升排名吧{。}。</t>
   </si>
   <si>
     <t xml:space="preserve">你已经满足了下一次晋升等级的条件{。}。恭喜你晋升了{。}！</t>

--- a/Original/CN/Dialog/Drama/guild_clerk.xlsx
+++ b/Original/CN/Dialog/Drama/guild_clerk.xlsx
@@ -235,7 +235,7 @@
     <t xml:space="preserve">商人公会会为商人们提供支持，是保证商人们安全、公正交易的组织{。}。玛丽安女士虽然有点可怕{。}，但她也是仅凭一代就在提里斯发财的厉害女商人{。}。</t>
   </si>
   <si>
-    <t xml:space="preserve">对#guild的贡献度足够的状态下和我对话，就能增加公会中的排名{。}。排名提升后，就可以使用高级服务，还会有各种奖励，请加油提升排名吧{。}。</t>
+    <t xml:space="preserve">对#guild的贡献度足够的状态下和我对话，就能增加公会中的排名{。}。排名上升后，就可以使用高级服务，还会有各种奖励，请加油提升排名吧{。}。</t>
   </si>
   <si>
     <t xml:space="preserve">你已经满足了下一次晋升等级的条件{。}。恭喜你晋升了{。}！</t>
